--- a/src/import.xlsx
+++ b/src/import.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>文件夹名</t>
   </si>
@@ -38,58 +38,46 @@
     <t>拼接名称(可选)</t>
   </si>
   <si>
-    <t>远程穿透地址端口(可选)</t>
+    <t>远程穿透IP:端口(可选)</t>
   </si>
   <si>
     <t>菏泽路（五莲路-长岛路）东侧</t>
   </si>
   <si>
-    <t>10.200.15.1</t>
-  </si>
-  <si>
-    <t>CB990111</t>
-  </si>
-  <si>
-    <t>47.123.179.15:30111</t>
-  </si>
-  <si>
-    <t>10.200.15.2</t>
-  </si>
-  <si>
-    <t>CB990112</t>
-  </si>
-  <si>
-    <t>47.123.179.15:30112</t>
+    <t>10.11.12.1</t>
+  </si>
+  <si>
+    <t>10.11.12.2</t>
   </si>
   <si>
     <t>杜鹃路（浦建路-玉兰路）两侧</t>
   </si>
   <si>
-    <t>10.200.15.3</t>
+    <t>10.11.12.3</t>
   </si>
   <si>
     <t>CB990113</t>
   </si>
   <si>
-    <t>47.123.179.15:30113</t>
-  </si>
-  <si>
-    <t>10.200.16.1</t>
+    <t>11.111.110.10:30113</t>
+  </si>
+  <si>
+    <t>10.11.13.1</t>
   </si>
   <si>
     <t>CB990114</t>
   </si>
   <si>
-    <t>47.123.179.15:30114</t>
-  </si>
-  <si>
-    <t>10.200.16.2</t>
+    <t>11.111.110.10:30114</t>
+  </si>
+  <si>
+    <t>10.11.13.2</t>
   </si>
   <si>
     <t>CB990115</t>
   </si>
   <si>
-    <t>47.123.179.15:30115</t>
+    <t>11.111.110.10:30115</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1037,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1082,67 +1070,59 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
